--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,18 +442,13 @@
       <c r="B2" t="inlineStr">
         <is>
           <t># Pendahuluan
-## A. Pengenalan tentang investasi deposito
-Investasi deposito adalah salah satu jenis investasi yang dapat dipilih oleh masyarakat untuk menanamkan uangnya dalam jangka waktu tertentu. Investasi ini biasanya dilakukan dengan menyetor sejumlah uang pada bank atau lembaga keuangan lainnya dan mengikuti perjanjian bunga yang telah disepakati. Setelah jangka waktu yang telah ditentukan selesai, investor akan menerima kembali modal beserta bunga yang dihasilkan.
-## B. Mengapa investasi deposito penting
-Investasi deposito merupakan salah satu pilihan investasi yang cukup aman dan minim risiko, sehingga cocok bagi para investor pemula yang ingin memulai investasi. Selain itu, investasi deposito juga memberikan return on investment (ROI) yang menarik dibandingkan dengan menyimpan uang di bank biasa.
-## C. Tujuan dan manfaat investasi deposito
-Tujuan utama dari investasi deposito adalah untuk mengembangkan dan mengoptimalkan pengelolaan keuangan serta meningkatkan nilai investasi. Selain itu, manfaat dari investasi deposito antara lain adalah:
-1. Mendapatkan jaminan keamanan dan proteksi modal investasi.
-2. Memperoleh bunga yang lebih tinggi dibandingkan dengan tabungan biasa.
-3. Memiliki jangka waktu yang fleksibel, dapat disesuaikan dengan kebutuhan investor.
-4. Memberikan kemudahan dalam melakukan transaksi dan pencairan dana.
-Dengan demikian, investasi deposito dapat menjadi alternatif pilihan investasi yang menarik bagi masyarakat untuk mengembangkan keuangan mereka.
-# The end</t>
+Investasi deposito adalah salah satu bentuk investasi yang populer di kalangan masyarakat. Dalam artikel ini, kita akan membahas pengenalan tentang investasi deposito, mengapa investasi deposito penting, serta tujuan dan manfaat dari investasi deposito.
+## A. Pengenalan tentang Investasi Deposito
+Investasi deposito adalah bentuk investasi yang dilakukan dengan menempatkan sejumlah uang pada suatu bank atau lembaga keuangan untuk jangka waktu tertentu. Selama jangka waktu tersebut, nasabah akan mendapatkan bunga sesuai dengan tingkat suku bunga yang telah ditetapkan oleh bank atau lembaga keuangan tersebut.
+Investasi deposito biasanya memiliki jangka waktu mulai dari satu bulan hingga satu tahun. Ada juga deposito dengan jangka waktu lebih lama, seperti tiga tahun atau lima tahun. Semakin lama jangka waktu investasi, biasanya tingkat suku bunga yang ditawarkan akan semakin tinggi.
+## B. Mengapa Investasi Deposito Penting
+Investasi deposito penting karena memberikan keuntungan bagi para investor. Keuntungan utama dari investasi deposito adalah bunga yang diterima oleh nasabah selama jangka waktu investasi. Bunga yang didapat dari investasi deposito cenderung lebih tinggi dibandingkan dengan tabungan biasa.
+Selain itu, investasi deposito juga relatif aman karena uang yang disimpan dalam deposito dijamin oleh Lembaga Penjamin Simpanan (LPS). Jadi, jika terjadi kebangkrutan pada bank</t>
         </is>
       </c>
     </row>
@@ -465,13 +460,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tanda petik sering digunakan dalam penulisan untuk menandakan kutipan langsung atau ucapan seseorang. Namun, ada kebiasaan unik dalam penulisan cerita atau skenario film di mana tanda petik digunakan untuk menandai akhir cerita atau film dengan tulisan 'The End'.
-Penggunaan tanda petik dengan tulisan 'The End' sebagai penutup cerita atau film memang sudah menjadi kebiasaan yang umum sejak lama. Hal ini bermula dari penggunaan tanda petik oleh para penulis novel pada abad ke-19. Pada waktu itu, penulis-penulis tersebut menggunakan tanda petik untuk menandakan akhir cerita dan juga sebagai tanda bahwa karakter-karakter dalam cerita tidak akan muncul lagi di masa depan.
-Pada saat film mulai populer, penutup yang sama dengan tanda petik dan tulisan 'The End' mulai digunakan. Bagi para produser film, tanda petik menjadi simbol penting sebagai penanda bahwa cerita sudah selesai dan takkan dilanjutkan lagi.
-Sayangnya, banyak orang mengira bahwa penggunaan tanda petik dengan tulisan 'The End' telah ditinggalkan. Padahal, penggunaan ini masih populer terutama pada film-film klasik dan beberapa film modern yang ingin memberikan sentuhan klasik pada produksinya.
-Meski terlihat seperti hal kecil, penggunaan tanda petik dengan tulisan 'The End' memiliki nilai estetika tersendiri. Tanda tersebut memberikan kesan akhir yang kuat pada sebuah cerita atau film dan membuat penonton merasakan adanya penyelesaian yang tegas.
-Dalam dunia penulisan, baik karya fiksi maupun non-fiksi, penggunaan tanda petik dengan tulisan 'The End' di akhir cerita juga menjadi tren yang cukup populer. Meskipun beberapa penulis menilai bahwa tanda ini sudah ketinggalan zaman dan memilih untuk tidak menggunakan tanda tersebut, namun banyak juga yang masih memilih untuk menggunakannya sebagai simbol penting dalam penyelesaian cerita.
-Dalam kesimpulannya, penggunaan tanda petik dengan tulisan 'The End' memang merupakan hal kecil dalam penulisan cerita atau film, tetapi memberikan makna yang penting bagi para penciptanya. Dalam era modern ini, penggunaannya mungkin tidak sepopuler dulu, namun bagi beberapa orang masih menjadi tanda penting dalam menyelesaikan sebuah kisah ataupun skenario film.</t>
+          <t>Tanda petik adalah salah satu tanda baca yang digunakan dalam penulisan untuk menunjukkan kutipan atau ucapan langsung seseorang. Tanda petik bisa digunakan dalam dua bentuk, yaitu petik tunggal (') dan petik ganda ("). Penggunaan antara petik tunggal dan ganda tergantung pada aturan penulisan yang berlaku di negara tertentu.
+Salah satu fungsi utama dari tanda petik adalah untuk memberikan penekanan pada kata atau kalimat yang ingin dikutip. Misalnya, ketika seseorang mengucapkan "Saya sangat senang", maka kutipan tersebut bisa ditulis dengan menggunakan tanda petik sebagai berikut: "Saya sangat senang". Hal ini dapat membantu pembaca untuk membedakan antara apa yang dikatakan oleh orang yang dikutip dan apa yang ditulis oleh penulis.
+Selain itu, tanda petik juga digunakan untuk menunjukkan dialog antara beberapa karakter dalam sebuah cerita. Dalam hal ini, setiap kali seorang karakter berbicara maka kalimat yang diucapkannya akan diapit oleh tanda petik seperti contoh berikut:
+"Bagaimana kabarmu?" tanya Rina.
+"Aku baik-baik saja," jawab Dewi.
+Penggunaan tanda petik juga penting dalam bidang jurnalistik, khususnya dalam menulis wawancara dengan narasumber. Dalam sebuah wawancara, tanda petik digunakan untuk menampilkan ucapan langsung narasumber dan membed</t>
         </is>
       </c>
     </row>
@@ -483,22 +477,51 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pesawat kertas terbang tinggi
-Melayang-layang di udara biru yang cerah
-Penuh harapan, penuh impian
-Mengarungi jarak yang tak terhingga
-Namun sayangnya, waktu berlalu
-Pesawat kertas semakin lelah
-Keriput dan robek pun datang menghampiri
-Tak lagi mampu melayang begitu indah
-Hanya ada satu hal yang tersisa
-Sebuah tulisan kecil di ujung sayap
-"The End" itulah yang kini tertera
-Menandakan perjalanan telah usai
-Meski pesawat kertas telah mati
-Namun kenangan tetap 'kan abadi
-Mengajarkan kita tentang arti merelakan
-Dan juga akan selalu membekas dalam ingatan.</t>
+          <t>Pesawat kertas, karya kecil tangan
+Terbang lincah di angkasa khayal
+Membawa mimpi dan harapan
+Sejauh mana langit yang terbentang
+Lemparan pertama, rapuh sayapnya
+Namun tak putus semangat anak kecil
+Kembali melipat dan meluncurkan
+Pesawatnya menuju tujuan yang ingin dicapai
+Berkelana ia di udara
+Melintasi awan dan bintang-bintang
+Memetik pelajaran dari setiap penerbangannya
+Bahwa hidup juga seperti pesawat kertas
+Terbanglah pesawat kertasmu dengan bebas
+Jangan takut gagal, jangan takut jatuh
+Berani mencoba, berani mengambil resiko
+Hingga suatu saat kau akan mendarat dengan selamat
+Pesawat kertas, simbol kecil pengharapan
+Sederhana namun memiliki arti mendalam
+Mari kita belajar dari keberaniannya
+Dalam meraih impian yang tak terbatas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Siapa pemilik TransTV?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tanda Petik: Penggunaan dan Jenisnya
+Tanda petik (") adalah tanda baca yang berfungsi untuk menandai kutipan langsung atau perkataan seseorang dalam sebuah tulisan. Selain itu, tanda petik juga dapat digunakan untuk menunjukkan istilah asing, judul buku, film, atau karya seni lainnya.
+Penggunaan Tanda Petik
+1. Menandai Kutipan Langsung
+Tanda petik digunakan untuk menandai kata atau kalimat yang diucapkan secara langsung oleh seseorang. Misalnya, "Saya suka makanan pedas," ujar Andi. Dalam kutipan tersebut, tanda petik menandai kata-kata yang diucapkan langsung oleh Andi.
+2. Menunjukkan Istilah Asing
+Tanda petik juga digunakan untuk menunjukkan kata atau frasa yang berasal dari bahasa asing dan belum lazim digunakan dalam bahasa Indonesia. Contohnya, "Santai saja, itu hanya small talk," ujar Mike. Dalam contoh tersebut, small talk adalah istilah asing yang ditulis dengan tanda petik.
+3. Menandai Judul Karya Seni atau Publikasi
+Tanda petik digunakan untuk menandai judul buku, film, artikel, atau karya seni lainnya. Misalnya, "Saya suka membaca novel 'Harry Potter'," kata Eva.
+Jenis Tanda Petik
+Dalam penggunaannya, terdapat dua jenis tanda petik yaitu tanda petik tunggal (') dan tanda petik ganda ("). Kedua jenis tanda petik ini memiliki fungsi yang sama, yaitu menandai kutipan langsung atau istilah asing.
+Namun, dalam penggunaannya tanda petik tunggal dan ganda mempunyai aturan tersendiri. Di beberapa negara seperti Inggris dan Amerika Serikat, tanda petik tunggal lebih sering digunakan untuk menandai kutipan langsung, sedangkan di Indonesia tanda petik ganda lebih umum dipakai. Namun, penggunaan tanda petik pun tergantung pada gaya penulisan masing-masing individu.
+Kesimpulan
+Tanda petik adalah tanda baca yang berfungsi untuk menandai kutipan langsung, istilah asing dan judul karya seni atau publikasi. Ada dua jenis tanda petik yaitu tanda petik tunggal dan ganda, yang memiliki aturan penggunaan yang berbeda-beda. Penting bagi setiap penulis untuk memahami penggunaan tanda petik agar tulisan dapat dibaca dengan jelas dan menghindari kesalahpahaman.</t>
         </is>
       </c>
     </row>
